--- a/public/template/laporan/Laporan Penerimaan Kayu Olahan.xlsx
+++ b/public/template/laporan/Laporan Penerimaan Kayu Olahan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\PKL\PKL_DLH_uji2\public\template\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B019F-6748-4F9D-B504-00FE1B517259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE8C073-E44B-4666-827F-F4FB78322922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F52AC168-CB8D-44F1-87BB-1F52C17B9D43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F52AC168-CB8D-44F1-87BB-1F52C17B9D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,28 +266,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -299,10 +293,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,10 +305,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +319,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -337,24 +349,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFCCCCCC"/>
@@ -556,14 +550,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182561</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1611312</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>75127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -578,8 +572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="777874"/>
-          <a:ext cx="3286125" cy="1166813"/>
+          <a:off x="611746" y="762110"/>
+          <a:ext cx="3253369" cy="1352172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,6 +702,24 @@
             </a:rPr>
             <a:t> menggunakan "," contoh 2,000 m3</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Tanggal Ditulis dengan format (HH/BB/TTTT) contoh 1 maret 2025 ditulis sebagai 1/3/2025</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -759,22 +771,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>17318</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>182561</xdr:rowOff>
+      <xdr:rowOff>77932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1611312</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>1624695</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA6FC88-1940-4591-81B5-E0D448D944E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F568F5-37DF-4DA5-B111-69AC64511BCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -782,8 +794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622300" y="773111"/>
-          <a:ext cx="3287712" cy="1177926"/>
+          <a:off x="623454" y="675409"/>
+          <a:ext cx="3252605" cy="1392237"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,6 +923,21 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> menggunakan "," contoh 2,000 m3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Tanggal Ditulis dengan format (HH/BB/TTTT) contoh 1 maret 2025 ditulis sebagai 1/3/2025</a:t>
           </a:r>
           <a:endParaRPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -985,8 +1012,8 @@
     <tableColumn id="4" xr3:uid="{1F6C7B87-D74E-4010-B668-EF69C5534B35}" name="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{F743EF1B-7A3C-4642-A86D-9C1E8F20452D}" name="5" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{4A881D18-42A8-4BCE-813A-28532110981A}" name="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C94CB7D6-B475-46FC-9C57-D3F824F6BC35}" name="7" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{B932DD2E-B371-4DF3-AD8D-5FDBD491FA18}" name="8" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C94CB7D6-B475-46FC-9C57-D3F824F6BC35}" name="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B932DD2E-B371-4DF3-AD8D-5FDBD491FA18}" name="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1292,46 +1319,46 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1393,7 +1420,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1403,7 +1430,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1413,7 +1440,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1423,7 +1450,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1433,7 +1460,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1443,7 +1470,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1453,7 +1480,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1463,7 +1490,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1473,7 +1500,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1497,47 +1524,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB89CE-DE76-44A6-94E5-2BFE098E9129}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="9"/>
-    <col min="2" max="2" width="24" style="9" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1563,253 +1590,253 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>45931</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>97258</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18">
         <v>45931</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>115.824</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="20">
         <v>8986922</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22">
         <v>45931</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>10.742000000000001</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18">
         <v>45931</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>17.760999999999999</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <v>1281791</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>5</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22">
         <v>45931</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>29.984999999999999</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="24">
         <v>2239507</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18">
         <v>45931</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>12.848000000000001</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="20">
         <v>84512</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="13">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>7</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22">
         <v>45931</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>4.12</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="24">
         <v>318132</v>
       </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="12">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
         <v>8</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
         <v>45931</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="17">
         <v>89.879000000000005</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <v>6590545</v>
       </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
         <v>9</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22">
         <v>45931</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <v>148.667</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="12">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
         <v>10</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
         <v>45931</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <v>45.395000000000003</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="20">
         <v>3551536</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
